--- a/medicine/Enfance/Judith_Bouilloc/Judith_Bouilloc.xlsx
+++ b/medicine/Enfance/Judith_Bouilloc/Judith_Bouilloc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Judith Bouilloc est une autrice française née en 1988.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Judith Bouilloc naît en 1988. Elle passe son enfance à Nice[1]. 
-Elle effectue trois années de classe prépa littéraire au lycée militaire d’Aix-en-Provence[1]. Puis elle obtient une licence de Lettres Modernes option Métier du Livre à l'Université d'Aix-Marseille[1]. Elle est également titulaire d'un master 2 de Sciences Politiques et de Communication, qu'elle obtient à l'Institut d'études politiques d'Aix-en-Provence[2],[1].
-Avant de se consacrer à sa carrière littéraire, Judith Bouilloc occupe des emplois variés : secrétariat, enseignement, vente, administration[2]. Durant ses études, elle est également bibliothécaire à la bibliothèque l'Institut d'études politiques d'Aix-en-Provence et à celle du centre franco-omanais de Mascate[3].
-Elle écrit des albums pour enfants, des romans, des nouvelles, des haïkus et des chroniques littéraires[4]. 
-Judith Bouilloc rédige des récits fantastiques comme Les Maitres du vent publié en 2017 ou L'Arrache-mots publié en 2019[5],[6]. 
-Un certain nombre de ses textes traitent également de la religion chrétienne et de la foi[7]. Le Château intérieur publié en 2020 est une initiation aux sept demeures de Thérèse d’Avila pour les enfants[7]. Dans La petite voie paru en 2021, destiné aux enfants de plus de sept ans, le lecteur suit l'histoire d'un petit garçon qui va découvrir qu'il est aimé par Dieu, malgré ses faiblesses, lors de l'ascension d'une montagne. Le livre traite de la spiritualité de Thérèse de Lisieux[7]. Le jardin des merveilles, publié en 2022, évoque la religieuse Hildegarde de Bingen[8]. 
-Elle déménage à Chalon-sur-Saône, puis à Bitche, afin de se consacrer à l’écriture[3],[9]. Elle est mariée et mère de famille[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Judith Bouilloc naît en 1988. Elle passe son enfance à Nice. 
+Elle effectue trois années de classe prépa littéraire au lycée militaire d’Aix-en-Provence. Puis elle obtient une licence de Lettres Modernes option Métier du Livre à l'Université d'Aix-Marseille. Elle est également titulaire d'un master 2 de Sciences Politiques et de Communication, qu'elle obtient à l'Institut d'études politiques d'Aix-en-Provence,.
+Avant de se consacrer à sa carrière littéraire, Judith Bouilloc occupe des emplois variés : secrétariat, enseignement, vente, administration. Durant ses études, elle est également bibliothécaire à la bibliothèque l'Institut d'études politiques d'Aix-en-Provence et à celle du centre franco-omanais de Mascate.
+Elle écrit des albums pour enfants, des romans, des nouvelles, des haïkus et des chroniques littéraires. 
+Judith Bouilloc rédige des récits fantastiques comme Les Maitres du vent publié en 2017 ou L'Arrache-mots publié en 2019,. 
+Un certain nombre de ses textes traitent également de la religion chrétienne et de la foi. Le Château intérieur publié en 2020 est une initiation aux sept demeures de Thérèse d’Avila pour les enfants. Dans La petite voie paru en 2021, destiné aux enfants de plus de sept ans, le lecteur suit l'histoire d'un petit garçon qui va découvrir qu'il est aimé par Dieu, malgré ses faiblesses, lors de l'ascension d'une montagne. Le livre traite de la spiritualité de Thérèse de Lisieux. Le jardin des merveilles, publié en 2022, évoque la religieuse Hildegarde de Bingen. 
+Elle déménage à Chalon-sur-Saône, puis à Bitche, afin de se consacrer à l’écriture,. Elle est mariée et mère de famille. 
 </t>
         </is>
       </c>
@@ -548,15 +562,17 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Maitres du vent, 2017[5]
-La Crèche perdue, 2017[4]
-L'Arrache-mots, 2019[6]
-24 contes de Noël autour du monde, 2020[10]
-Le Château intérieur, 2020[11]
-La petite voie, 2021[7]
-Le jardin des merveilles, 2022[8]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Maitres du vent, 2017
+La Crèche perdue, 2017
+L'Arrache-mots, 2019
+24 contes de Noël autour du monde, 2020
+Le Château intérieur, 2020
+La petite voie, 2021
+Le jardin des merveilles, 2022</t>
         </is>
       </c>
     </row>
@@ -584,11 +600,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 : Prix Emergence organisé par la Charte des Auteurs et Illustrateurs Jeunesse[4]
-2019 : Prix Actuailes des lecteurs en novembre pour son livre "L'arrache mots" (Hachette, 2019)[12]
-2020 : Grand Prix de l'Imaginaire, catégorie Roman jeunesse francophone, pour L'arrache-mots[13]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2018 : Prix Emergence organisé par la Charte des Auteurs et Illustrateurs Jeunesse
+2019 : Prix Actuailes des lecteurs en novembre pour son livre "L'arrache mots" (Hachette, 2019)
+2020 : Grand Prix de l'Imaginaire, catégorie Roman jeunesse francophone, pour L'arrache-mots</t>
         </is>
       </c>
     </row>
